--- a/IAM.xlsx
+++ b/IAM.xlsx
@@ -1,48 +1,382 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lý thuyết" sheetId="1" r:id="rId1"/>
+    <sheet name="IAM Users &amp; Groups" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,27 +384,463 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>397510</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangles 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="397510" y="285750"/>
+          <a:ext cx="6548120" cy="5209540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:t>IAM: Users &amp; Groups</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:t>- IAM viết tắt là Identity and Access Management - Quản lý truy cập và nhận dạng</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:t>- Là dịch vụ Global</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:t>- Root Accout được tạo mặc định, không nên được sử dụng hoặc share cho bất kì ai</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:t>- Groups chỉ chứa User và Groups không chứa các Groups khác </a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:t>- User không chỉ thuộc về 1 group mà có thể thuộc về nhiều group khác</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:t>IAM: Permissions</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:t>- Json documents </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN" sz="1100"/>
+            <a:t>= Polices</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN" sz="1100"/>
+            <a:t>- Policies định nghĩa Permissions cho Users</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN" sz="1100"/>
+            <a:t>- In AWS you apply the least privilege principle: don’t give more permissions than a user needs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN" sz="1100"/>
+            <a:t>(Trong AWS, bạn áp dụng nguyên tắc ít đặc quyền nhất: không cấp quyền hơn những gì người dùng cần) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -116,7 +886,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +921,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +1095,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/IAM.xlsx
+++ b/IAM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="lý thuyết" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,7 +34,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -47,12 +54,89 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -68,84 +152,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -159,28 +174,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -191,6 +184,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -203,13 +208,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,157 +262,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +375,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,15 +413,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,17 +432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,7 +460,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,160 +475,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,9 +697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:colOff>338455</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -716,7 +709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="397510" y="285750"/>
-          <a:ext cx="6548120" cy="5209540"/>
+          <a:ext cx="6541770" cy="15726410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,98 +736,682 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
             <a:t>IAM: Users &amp; Groups</a:t>
           </a:r>
-          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
             <a:t>- IAM viết tắt là Identity and Access Management - Quản lý truy cập và nhận dạng</a:t>
           </a:r>
-          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
             <a:t>- Là dịch vụ Global</a:t>
           </a:r>
-          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
             <a:t>- Root Accout được tạo mặc định, không nên được sử dụng hoặc share cho bất kì ai</a:t>
           </a:r>
-          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
             <a:t>- Groups chỉ chứa User và Groups không chứa các Groups khác </a:t>
           </a:r>
-          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
             <a:t>- User không chỉ thuộc về 1 group mà có thể thuộc về nhiều group khác</a:t>
           </a:r>
-          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
             <a:t>IAM: Permissions</a:t>
           </a:r>
-          <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="vi-VN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
             <a:t>- Json documents </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="vi-VN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
             <a:t>= Polices</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="vi-VN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="vi-VN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
             <a:t>- Policies định nghĩa Permissions cho Users</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="vi-VN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="vi-VN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
             <a:t>- In AWS you apply the least privilege principle: don’t give more permissions than a user needs</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="vi-VN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="vi-VN" sz="1100"/>
-            <a:t>(Trong AWS, bạn áp dụng nguyên tắc ít đặc quyền nhất: không cấp quyền hơn những gì người dùng cần) </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="vi-VN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>(Trong AWS, bạn áp dụng nguyên tắc ít đặc quyền nhất: không cấp quyền hơn những gì người dùng cần)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>IAM Policies Structure</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
+            <a:t>Bao gồm</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Version : phiên bản của ngôn ngữ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- ID : để nhận dạng Policy (optianal)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Statement : câu lệnh (1 hoặc nhiều) (required)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>Statement bao gồm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Sid : Nhận dạng cho câu lệnh (optional)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Effect: Allow/Deny</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Principal: account/user/role nào mà Policy áp dụng đến</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Action: Liệt kê ra các Action của Policy</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Resource: resource nào mà Policy áp dụng đến</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Condition: các điều kiện để Policy này có hiệu lực</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>IAM – Password Policy</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>Trong AWS có thể set Policy cho Password:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Set độ dài tối thiểu cho password</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Set có các kí tự chỉ định(chữ hoa chữ thường số và ký tự đặc biệt)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Set cho IAM User có quyền thay đổi password của họ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Set password expiration (thời hạn password-nghĩa là hết thời hạn thì sẽ yêu cầu user change password)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Prevent password re-use ????</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>Multi Factor Authentication - MFA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Bảo mật nhiều lớp : ngoài password ra thì phải có xác nhận trên thiết bị nữa thì mới được login vào aws</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>How can users access AWS ?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Để truy cập đến AWS thì có 3 option:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>+ AWS Management Console</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>+ AWS Command Line Interface (CLI) : dùng command line với access key</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>+ AWS Software Developer Kit (SDK) : dùng code với access key</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Access Keys được generate từ AWS console</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Access Key ID ~= username</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Secret Access Key ~= password</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>What’s the AWS CLI?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Là tool để tương tác với các dịch vụ AWS bằng command line</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Là tool có thể thay thế  cho việc sử dụng AWS Management Console</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>What’s the AWS SDK?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
+            <a:t>- Sử dụng SDK để truy cập và quản lý các dịch vụ AWS theo hướng lập trình</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
+            <a:t>- Nhúng SDK vào app của bạn để app có thể tương tác với AWS</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
+            <a:t>- Supports </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
+            <a:t>SDKs, Mobile SDKs, IoT Device SDKs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>IAM Roles for Services</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
+            <a:t>- Một vài AWS services thay mặt bạn để thực hiện các Action, để thực hiện các Action đấy thì cần phải gắn role cho các service đấy như </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>EC2 Instance Roles</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>Lambda Function Roles </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" altLang="en-US"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>Roles for CloudFormation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>IAM Security Tools</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- IAM Credentials Report (account-level): là report để liệt kê ra các users của account của bạn và liệt kê ra các status của credentials (thông tin đăng nhập)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- IAM Access Advisor (user-level) : Cố vấn truy cập này sẽ cho bạn thấy permissions nào được gán cho users nào , sẽ cho bạn thấy các dịch vụ được truy cập lần cuối là khi nào. Ngoài ra bạn có thể sử dụng thông tin của cố vấn trên để điểu chỉnh cho policy của bạn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>IAM Guidelines &amp; Best Practices</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Không sử dụng root account ngoại trừ việc setup AWS account</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- 1 user vật lý = 1 aws user</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Phân công user đến group và chỉ định permission đến group</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Phải tạo strong password policy</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Phải set Multi Factor Authentication (MFA)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Phải tạo Role để cấp permission đến các AWS services</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>- Kiểm tra permission của account của bạn bằng cách sử dụng IAM Credentials Report &amp; IAM</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>Access Advisor</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>IAM Section – Summary</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• Users: mapped to a physical user, has a password for AWS Console</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• Groups: contains users only</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• Policies: JSON document that outlines permissions for users or groups</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• Roles: for EC2 instances or AWS services</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• Security: MFA + Password Policy</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• AWS CLI: manage your AWS services using the command-line</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• AWS SDK: manage your AWS services using a programming language</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• Access Keys: access AWS using the CLI or SDK</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="vi-VN"/>
+            <a:t>• Audit: IAM Credential Reports &amp; IAM Access Advisor</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="vi-VN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1103,8 +1680,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1120,8 +1697,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
